--- a/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/ROI_greedy/dataset_02/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/ROI_greedy/dataset_02/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=2(for_10_workers_and_less)\ROI_greedy\dataset_02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C641EF9D-BB65-485E-8C47-BDD635F989C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>dataset</t>
   </si>
@@ -185,13 +204,25 @@
   </si>
   <si>
     <t>undefined</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +236,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,22 +283,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +383,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +435,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,14 +628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.35174011139616</v>
+        <v>15.351740111396159</v>
       </c>
       <c r="H2">
-        <v>2.345371053731585</v>
+        <v>2.3453710537315851</v>
       </c>
       <c r="I2">
-        <v>13.00636905766457</v>
+        <v>13.006369057664569</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>13.00636905766457</v>
+        <v>13.006369057664569</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -669,43 +758,43 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>15.35174011139616</v>
+        <v>15.351740111396159</v>
       </c>
       <c r="P2">
-        <v>2.345371053731585</v>
+        <v>2.3453710537315851</v>
       </c>
       <c r="Q2">
         <v>1.878785208664743</v>
       </c>
       <c r="R2">
-        <v>8.599920613083228</v>
+        <v>8.5999206130832277</v>
       </c>
       <c r="S2">
-        <v>6.54554855487403</v>
+        <v>6.5455485548740304</v>
       </c>
       <c r="T2">
-        <v>6.54554855487403</v>
+        <v>6.5455485548740304</v>
       </c>
       <c r="U2">
         <v>1.878785208664743</v>
       </c>
       <c r="V2">
-        <v>8.599920613083228</v>
+        <v>8.5999206130832277</v>
       </c>
       <c r="W2">
-        <v>40.76588820670224</v>
+        <v>40.765888206702243</v>
       </c>
       <c r="X2">
-        <v>53.77225726436681</v>
+        <v>53.772257264366807</v>
       </c>
       <c r="Y2">
-        <v>40.76588820670224</v>
+        <v>40.765888206702243</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,19 +814,19 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.805911293604813</v>
+        <v>5.8059112936048134</v>
       </c>
       <c r="H3">
         <v>1.158083209844015</v>
       </c>
       <c r="I3">
-        <v>4.647828083760798</v>
+        <v>4.6478280837607979</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
       <c r="K3">
-        <v>4.647828083760798</v>
+        <v>4.6478280837607979</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -749,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>5.805911293604813</v>
+        <v>5.8059112936048134</v>
       </c>
       <c r="P3">
         <v>1.158083209844015</v>
@@ -758,34 +847,34 @@
         <v>1.612110354000956</v>
       </c>
       <c r="R3">
-        <v>2.780870150376599</v>
+        <v>2.7808701503765989</v>
       </c>
       <c r="S3">
-        <v>5.013380078610089</v>
+        <v>5.0133800786100888</v>
       </c>
       <c r="T3">
-        <v>5.013380078610089</v>
+        <v>5.0133800786100888</v>
       </c>
       <c r="U3">
         <v>1.612110354000956</v>
       </c>
       <c r="V3">
-        <v>2.780870150376599</v>
+        <v>2.7808701503765989</v>
       </c>
       <c r="W3">
-        <v>39.50503143423146</v>
+        <v>39.505031434231462</v>
       </c>
       <c r="X3">
-        <v>44.15285951799225</v>
+        <v>44.152859517992248</v>
       </c>
       <c r="Y3">
-        <v>39.50503143423146</v>
+        <v>39.505031434231462</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -805,19 +894,19 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.87809430391931</v>
+        <v>19.878094303919308</v>
       </c>
       <c r="H4">
-        <v>2.500850312193854</v>
+        <v>2.5008503121938541</v>
       </c>
       <c r="I4">
-        <v>17.37724399172546</v>
+        <v>17.377243991725461</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>17.37724399172546</v>
+        <v>17.377243991725461</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -829,43 +918,43 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>19.87809430391931</v>
+        <v>19.878094303919308</v>
       </c>
       <c r="P4">
-        <v>2.500850312193854</v>
+        <v>2.5008503121938541</v>
       </c>
       <c r="Q4">
-        <v>2.072987537747408</v>
+        <v>2.0729875377474078</v>
       </c>
       <c r="R4">
-        <v>12.19301246077588</v>
+        <v>12.193012460775879</v>
       </c>
       <c r="S4">
-        <v>7.948534227337017</v>
+        <v>7.9485342273370172</v>
       </c>
       <c r="T4">
-        <v>7.948534227337017</v>
+        <v>7.9485342273370172</v>
       </c>
       <c r="U4">
-        <v>2.072987537747408</v>
+        <v>2.0729875377474078</v>
       </c>
       <c r="V4">
-        <v>12.19301246077588</v>
+        <v>12.193012460775879</v>
       </c>
       <c r="W4">
-        <v>39.36783974665789</v>
+        <v>39.367839746657893</v>
       </c>
       <c r="X4">
         <v>56.74508373838335</v>
       </c>
       <c r="Y4">
-        <v>39.36783974665789</v>
+        <v>39.367839746657893</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -885,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.167758385954676</v>
+        <v>4.1677583859546763</v>
       </c>
       <c r="H5">
-        <v>1.338291169250707</v>
+        <v>1.3382911692507069</v>
       </c>
       <c r="I5">
-        <v>2.829467216703969</v>
+        <v>2.8294672167039692</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>2.829467216703969</v>
+        <v>2.8294672167039692</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -909,43 +998,43 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>4.167758385954676</v>
+        <v>4.1677583859546763</v>
       </c>
       <c r="P5">
-        <v>1.338291169250707</v>
+        <v>1.3382911692507069</v>
       </c>
       <c r="Q5">
-        <v>1.135984780634154</v>
+        <v>1.1359847806341541</v>
       </c>
       <c r="R5">
-        <v>1.309188816378079</v>
+        <v>1.3091888163780789</v>
       </c>
       <c r="S5">
-        <v>3.114238875452009</v>
+        <v>3.1142388754520089</v>
       </c>
       <c r="T5">
-        <v>3.114238875452009</v>
+        <v>3.1142388754520089</v>
       </c>
       <c r="U5">
-        <v>1.135984780634154</v>
+        <v>1.1359847806341541</v>
       </c>
       <c r="V5">
-        <v>1.309188816378079</v>
+        <v>1.3091888163780789</v>
       </c>
       <c r="W5">
-        <v>36.0262044676985</v>
+        <v>36.026204467698498</v>
       </c>
       <c r="X5">
-        <v>38.85567168440247</v>
+        <v>38.855671684402473</v>
       </c>
       <c r="Y5">
-        <v>36.0262044676985</v>
+        <v>36.026204467698498</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -968,7 +1057,7 @@
         <v>17.99766230184925</v>
       </c>
       <c r="H6">
-        <v>1.618942684125661</v>
+        <v>1.6189426841256609</v>
       </c>
       <c r="I6">
         <v>16.37871961772359</v>
@@ -992,40 +1081,40 @@
         <v>17.99766230184925</v>
       </c>
       <c r="P6">
-        <v>1.618942684125661</v>
+        <v>1.6189426841256609</v>
       </c>
       <c r="Q6">
         <v>2.408468605296179</v>
       </c>
       <c r="R6">
-        <v>12.47954698923301</v>
+        <v>12.479546989233009</v>
       </c>
       <c r="S6">
-        <v>11.11692370478774</v>
+        <v>11.116923704787739</v>
       </c>
       <c r="T6">
-        <v>11.11692370478774</v>
+        <v>11.116923704787739</v>
       </c>
       <c r="U6">
         <v>2.408468605296179</v>
       </c>
       <c r="V6">
-        <v>12.47954698923301</v>
+        <v>12.479546989233009</v>
       </c>
       <c r="W6">
-        <v>58.46691671741945</v>
+        <v>58.466916717419451</v>
       </c>
       <c r="X6">
-        <v>74.84563633514304</v>
+        <v>74.845636335143041</v>
       </c>
       <c r="Y6">
-        <v>58.46691671741945</v>
+        <v>58.466916717419451</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,19 +1134,19 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.288031808590482</v>
+        <v>3.2880318085904818</v>
       </c>
       <c r="H7">
-        <v>1.229205857664894</v>
+        <v>1.2292058576648941</v>
       </c>
       <c r="I7">
-        <v>2.058825950925588</v>
+        <v>2.0588259509255882</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>2.058825950925588</v>
+        <v>2.0588259509255882</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1069,43 +1158,43 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3.288031808590482</v>
+        <v>3.2880318085904818</v>
       </c>
       <c r="P7">
-        <v>1.229205857664894</v>
+        <v>1.2292058576648941</v>
       </c>
       <c r="Q7">
-        <v>0.9839208346011767</v>
+        <v>0.98392083460117674</v>
       </c>
       <c r="R7">
-        <v>0.8493846975552897</v>
+        <v>0.84938469755528967</v>
       </c>
       <c r="S7">
-        <v>2.674923641217193</v>
+        <v>2.6749236412171928</v>
       </c>
       <c r="T7">
-        <v>2.674923641217193</v>
+        <v>2.6749236412171928</v>
       </c>
       <c r="U7">
-        <v>0.9839208346011767</v>
+        <v>0.98392083460117674</v>
       </c>
       <c r="V7">
-        <v>0.8493846975552897</v>
+        <v>0.84938469755528967</v>
       </c>
       <c r="W7">
-        <v>36.55743486335118</v>
+        <v>36.557434863351183</v>
       </c>
       <c r="X7">
-        <v>38.61626081427676</v>
+        <v>38.616260814276757</v>
       </c>
       <c r="Y7">
-        <v>36.55743486335118</v>
+        <v>36.557434863351183</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,19 +1214,19 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.77758641792546</v>
+        <v>15.777586417925461</v>
       </c>
       <c r="H8">
         <v>1.213651217125514</v>
       </c>
       <c r="I8">
-        <v>14.56393520079994</v>
+        <v>14.563935200799939</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>14.56393520079994</v>
+        <v>14.563935200799939</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1149,43 +1238,43 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>15.77758641792546</v>
+        <v>15.777586417925461</v>
       </c>
       <c r="P8">
         <v>1.213651217125514</v>
       </c>
       <c r="Q8">
-        <v>2.564957000947141</v>
+        <v>2.5649570009471412</v>
       </c>
       <c r="R8">
         <v>11.45097201472583</v>
       </c>
       <c r="S8">
-        <v>13.00009936569261</v>
+        <v>13.000099365692609</v>
       </c>
       <c r="T8">
-        <v>13.00009936569261</v>
+        <v>13.000099365692609</v>
       </c>
       <c r="U8">
-        <v>2.564957000947141</v>
+        <v>2.5649570009471412</v>
       </c>
       <c r="V8">
         <v>11.45097201472583</v>
       </c>
       <c r="W8">
-        <v>32.0404810545696</v>
+        <v>32.040481054569597</v>
       </c>
       <c r="X8">
-        <v>46.60441625536954</v>
+        <v>46.604416255369543</v>
       </c>
       <c r="Y8">
-        <v>32.0404810545696</v>
+        <v>32.040481054569597</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,19 +1294,19 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.67433540262435</v>
+        <v>18.674335402624351</v>
       </c>
       <c r="H9">
-        <v>1.608032884676846</v>
+        <v>1.6080328846768459</v>
       </c>
       <c r="I9">
-        <v>17.06630251794751</v>
+        <v>17.066302517947509</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>17.06630251794751</v>
+        <v>17.066302517947509</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1229,43 +1318,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>18.67433540262435</v>
+        <v>18.674335402624351</v>
       </c>
       <c r="P9">
-        <v>1.608032884676846</v>
+        <v>1.6080328846768459</v>
       </c>
       <c r="Q9">
-        <v>2.452138521624745</v>
+        <v>2.4521385216247449</v>
       </c>
       <c r="R9">
-        <v>13.12318313739205</v>
+        <v>13.123183137392051</v>
       </c>
       <c r="S9">
-        <v>11.61315516652335</v>
+        <v>11.613155166523351</v>
       </c>
       <c r="T9">
-        <v>11.61315516652335</v>
+        <v>11.613155166523351</v>
       </c>
       <c r="U9">
-        <v>2.452138521624745</v>
+        <v>2.4521385216247449</v>
       </c>
       <c r="V9">
-        <v>13.12318313739205</v>
+        <v>13.123183137392051</v>
       </c>
       <c r="W9">
-        <v>43.14383742804098</v>
+        <v>43.143837428040982</v>
       </c>
       <c r="X9">
-        <v>60.21013994598849</v>
+        <v>60.210139945988487</v>
       </c>
       <c r="Y9">
-        <v>43.14383742804098</v>
+        <v>43.143837428040982</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1285,19 +1374,19 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.671851720220779</v>
+        <v>9.6718517202207792</v>
       </c>
       <c r="H10">
         <v>1.151718521771929</v>
       </c>
       <c r="I10">
-        <v>8.52013319844885</v>
+        <v>8.5201331984488498</v>
       </c>
       <c r="J10">
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>8.52013319844885</v>
+        <v>8.5201331984488498</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1309,43 +1398,43 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>9.671851720220779</v>
+        <v>9.6718517202207792</v>
       </c>
       <c r="P10">
         <v>1.151718521771929</v>
       </c>
       <c r="Q10">
-        <v>2.127964588687375</v>
+        <v>2.1279645886873748</v>
       </c>
       <c r="R10">
-        <v>6.069316967982816</v>
+        <v>6.0693169679828163</v>
       </c>
       <c r="S10">
-        <v>8.397756515490048</v>
+        <v>8.3977565154900482</v>
       </c>
       <c r="T10">
-        <v>8.397756515490048</v>
+        <v>8.3977565154900482</v>
       </c>
       <c r="U10">
-        <v>2.127964588687375</v>
+        <v>2.1279645886873748</v>
       </c>
       <c r="V10">
-        <v>6.069316967982816</v>
+        <v>6.0693169679828163</v>
       </c>
       <c r="W10">
-        <v>44.50195558944799</v>
+        <v>44.501955589447988</v>
       </c>
       <c r="X10">
-        <v>53.02208878789683</v>
+        <v>53.022088787896827</v>
       </c>
       <c r="Y10">
-        <v>44.50195558944799</v>
+        <v>44.501955589447988</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,19 +1454,19 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.993124365107986</v>
+        <v>4.9931243651079864</v>
       </c>
       <c r="H11">
         <v>1.816643542711047</v>
       </c>
       <c r="I11">
-        <v>3.17648082239694</v>
+        <v>3.1764808223969401</v>
       </c>
       <c r="J11">
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>3.17648082239694</v>
+        <v>3.1764808223969401</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1389,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>4.993124365107986</v>
+        <v>4.9931243651079864</v>
       </c>
       <c r="P11">
         <v>1.816643542711047</v>
@@ -1401,10 +1490,10 @@
         <v>1.3397247685736</v>
       </c>
       <c r="S11">
-        <v>2.748543810447566</v>
+        <v>2.7485438104475661</v>
       </c>
       <c r="T11">
-        <v>2.748543810447566</v>
+        <v>2.7485438104475661</v>
       </c>
       <c r="U11">
         <v>1.011071247957801</v>
@@ -1425,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1445,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>14.7220204934203</v>
+        <v>14.722020493420301</v>
       </c>
       <c r="H12">
-        <v>6.099279633588864</v>
+        <v>6.0992796335888642</v>
       </c>
       <c r="I12">
-        <v>8.622740859831438</v>
+        <v>8.6227408598314383</v>
       </c>
       <c r="J12">
         <v>0.2</v>
@@ -1466,16 +1555,16 @@
         <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.6857912417758779</v>
+        <v>0.68579124177587791</v>
       </c>
       <c r="O12">
-        <v>25.14888484475687</v>
+        <v>25.148884844756871</v>
       </c>
       <c r="P12">
         <v>12.57546550871726</v>
       </c>
       <c r="Q12">
-        <v>0.6930658215074834</v>
+        <v>0.69306582150748341</v>
       </c>
       <c r="R12">
         <v>3.857794002401461</v>
@@ -1484,28 +1573,28 @@
         <v>1.999837288514192</v>
       </c>
       <c r="T12">
-        <v>2.413731026914362</v>
+        <v>2.4137310269143621</v>
       </c>
       <c r="U12">
-        <v>0.8811736943109936</v>
+        <v>0.88117369431099357</v>
       </c>
       <c r="V12">
         <v>3.248216092466135</v>
       </c>
       <c r="W12">
-        <v>41.8148026980429</v>
+        <v>41.814802698042897</v>
       </c>
       <c r="X12">
-        <v>50.43754355787434</v>
+        <v>50.437543557874342</v>
       </c>
       <c r="Y12">
-        <v>37.86412422183473</v>
+        <v>37.864124221834729</v>
       </c>
       <c r="Z12">
-        <v>1.104338303272573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.1043383032725731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1528,7 +1617,7 @@
         <v>27.77449598683291</v>
       </c>
       <c r="H13">
-        <v>6.113016429119929</v>
+        <v>6.1130164291199289</v>
       </c>
       <c r="I13">
         <v>21.66147955771298</v>
@@ -1552,40 +1641,40 @@
         <v>27.77449598683291</v>
       </c>
       <c r="P13">
-        <v>6.113016429119929</v>
+        <v>6.1130164291199289</v>
       </c>
       <c r="Q13">
         <v>1.513697850458688</v>
       </c>
       <c r="R13">
-        <v>12.4082197291355</v>
+        <v>12.408219729135499</v>
       </c>
       <c r="S13">
-        <v>4.54350095552279</v>
+        <v>4.5435009555227897</v>
       </c>
       <c r="T13">
-        <v>4.54350095552279</v>
+        <v>4.5435009555227897</v>
       </c>
       <c r="U13">
         <v>1.513697850458688</v>
       </c>
       <c r="V13">
-        <v>12.4082197291355</v>
+        <v>12.408219729135499</v>
       </c>
       <c r="W13">
-        <v>26.31711014643244</v>
+        <v>26.317110146432441</v>
       </c>
       <c r="X13">
-        <v>47.97858970414542</v>
+        <v>47.978589704145421</v>
       </c>
       <c r="Y13">
-        <v>26.31711014643244</v>
+        <v>26.317110146432441</v>
       </c>
       <c r="Z13">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1605,19 +1694,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>37.27233065983397</v>
+        <v>37.272330659833969</v>
       </c>
       <c r="H14">
-        <v>8.639746463169171</v>
+        <v>8.6397464631691712</v>
       </c>
       <c r="I14">
-        <v>28.6325841966648</v>
+        <v>28.632584196664801</v>
       </c>
       <c r="J14">
         <v>0.2</v>
       </c>
       <c r="K14">
-        <v>32.73159142486865</v>
+        <v>32.731591424868647</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1626,37 +1715,37 @@
         <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.8747690824134652</v>
+        <v>0.87476908241346518</v>
       </c>
       <c r="O14">
-        <v>43.85175668274258</v>
+        <v>43.851756682742582</v>
       </c>
       <c r="P14">
         <v>11.12016525787393</v>
       </c>
       <c r="Q14">
-        <v>1.372054629164149</v>
+        <v>1.3720546291641491</v>
       </c>
       <c r="R14">
-        <v>17.47411720573239</v>
+        <v>17.474117205732391</v>
       </c>
       <c r="S14">
-        <v>3.943444694015872</v>
+        <v>3.9434446940158718</v>
       </c>
       <c r="T14">
-        <v>4.314053753628552</v>
+        <v>4.3140537536285519</v>
       </c>
       <c r="U14">
-        <v>1.461878008164846</v>
+        <v>1.4618780081648459</v>
       </c>
       <c r="V14">
         <v>16.00232884603777</v>
       </c>
       <c r="W14">
-        <v>32.55936059913654</v>
+        <v>32.559360599136539</v>
       </c>
       <c r="X14">
-        <v>61.19194479580134</v>
+        <v>61.191944795801341</v>
       </c>
       <c r="Y14">
         <v>28.46035337093269</v>
@@ -1665,7 +1754,7 @@
         <v>1.144025169848744</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1688,16 +1777,16 @@
         <v>33.62416715605255</v>
       </c>
       <c r="H15">
-        <v>7.949833796992214</v>
+        <v>7.9498337969922144</v>
       </c>
       <c r="I15">
-        <v>25.67433335906033</v>
+        <v>25.674333359060331</v>
       </c>
       <c r="J15">
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>30.41570263892683</v>
+        <v>30.415702638926831</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1706,10 +1795,10 @@
         <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.8441144254942062</v>
+        <v>0.84411442549420623</v>
       </c>
       <c r="O15">
-        <v>42.10607016526158</v>
+        <v>42.106070165261578</v>
       </c>
       <c r="P15">
         <v>11.69036752633475</v>
@@ -1721,10 +1810,10 @@
         <v>15.43535355349051</v>
       </c>
       <c r="S15">
-        <v>3.601774714987339</v>
+        <v>3.6017747149873389</v>
       </c>
       <c r="T15">
-        <v>4.229543411181012</v>
+        <v>4.2295434111810124</v>
       </c>
       <c r="U15">
         <v>1.442094046613033</v>
@@ -1733,19 +1822,19 @@
         <v>14.20992536885478</v>
       </c>
       <c r="W15">
-        <v>21.02631620998971</v>
+        <v>21.026316209989709</v>
       </c>
       <c r="X15">
-        <v>46.70064956905004</v>
+        <v>46.700649569050043</v>
       </c>
       <c r="Y15">
-        <v>16.28494693012321</v>
+        <v>16.284946930123208</v>
       </c>
       <c r="Z15">
-        <v>1.291150428687987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>1.2911504286879869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1765,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>28.94534345369089</v>
+        <v>28.945343453690889</v>
       </c>
       <c r="H16">
-        <v>6.037872420184723</v>
+        <v>6.0378724201847227</v>
       </c>
       <c r="I16">
         <v>22.90747103350617</v>
@@ -1777,7 +1866,7 @@
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>30.25134758939059</v>
+        <v>30.251347589390591</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1786,46 +1875,46 @@
         <v>0.2</v>
       </c>
       <c r="N16">
-        <v>0.7572380359524882</v>
+        <v>0.75723803595248818</v>
       </c>
       <c r="O16">
-        <v>38.90591398955142</v>
+        <v>38.905913989551422</v>
       </c>
       <c r="P16">
-        <v>8.654566400160842</v>
+        <v>8.6545664001608422</v>
       </c>
       <c r="Q16">
         <v>1.503059180465979</v>
       </c>
       <c r="R16">
-        <v>17.24302210867643</v>
+        <v>17.243022108676431</v>
       </c>
       <c r="S16">
-        <v>4.495420358532158</v>
+        <v>4.4954203585321579</v>
       </c>
       <c r="T16">
         <v>4.793964072000934</v>
       </c>
       <c r="U16">
-        <v>1.567357641616345</v>
+        <v>1.5673576416163451</v>
       </c>
       <c r="V16">
         <v>13.44396555662507</v>
       </c>
       <c r="W16">
-        <v>24.66030284985503</v>
+        <v>24.660302849855029</v>
       </c>
       <c r="X16">
-        <v>47.56777388336119</v>
+        <v>47.567773883361191</v>
       </c>
       <c r="Y16">
-        <v>17.3164262939706</v>
+        <v>17.316426293970601</v>
       </c>
       <c r="Z16">
         <v>1.424098854533367</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,19 +1934,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>25.49612486323836</v>
+        <v>25.496124863238361</v>
       </c>
       <c r="H17">
-        <v>5.749986756046862</v>
+        <v>5.7499867560468623</v>
       </c>
       <c r="I17">
-        <v>19.7461381071915</v>
+        <v>19.746138107191499</v>
       </c>
       <c r="J17">
         <v>0.2</v>
       </c>
       <c r="K17">
-        <v>24.9614074620639</v>
+        <v>24.961407462063899</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1866,46 +1955,46 @@
         <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.7910666951453555</v>
+        <v>0.79106669514535555</v>
       </c>
       <c r="O17">
-        <v>40.68150683166684</v>
+        <v>40.681506831666837</v>
       </c>
       <c r="P17">
         <v>15.72009936960294</v>
       </c>
       <c r="Q17">
-        <v>0.9508335033848002</v>
+        <v>0.95083350338480022</v>
       </c>
       <c r="R17">
-        <v>10.01421030490713</v>
+        <v>10.014210304907129</v>
       </c>
       <c r="S17">
-        <v>2.587865755500906</v>
+        <v>2.5878657555009061</v>
       </c>
       <c r="T17">
-        <v>4.43411888495671</v>
+        <v>4.4341188849567104</v>
       </c>
       <c r="U17">
-        <v>1.489328922958432</v>
+        <v>1.4893289229584321</v>
       </c>
       <c r="V17">
-        <v>11.18251652478298</v>
+        <v>11.182516524782979</v>
       </c>
       <c r="W17">
-        <v>25.725240292451</v>
+        <v>25.725240292451002</v>
       </c>
       <c r="X17">
-        <v>45.4713783996425</v>
+        <v>45.471378399642497</v>
       </c>
       <c r="Y17">
-        <v>20.50997093757861</v>
+        <v>20.509970937578611</v>
       </c>
       <c r="Z17">
         <v>1.254279704771152</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1925,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>26.92303035215708</v>
+        <v>26.923030352157081</v>
       </c>
       <c r="H18">
-        <v>7.866923619632757</v>
+        <v>7.8669236196327574</v>
       </c>
       <c r="I18">
         <v>19.05610673252432</v>
@@ -1949,43 +2038,43 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>26.92303035215708</v>
+        <v>26.923030352157081</v>
       </c>
       <c r="P18">
-        <v>7.866923619632757</v>
+        <v>7.8669236196327574</v>
       </c>
       <c r="Q18">
         <v>1.230314980900751</v>
       </c>
       <c r="R18">
-        <v>9.377312749688176</v>
+        <v>9.3773127496881763</v>
       </c>
       <c r="S18">
-        <v>3.422307327983679</v>
+        <v>3.4223073279836789</v>
       </c>
       <c r="T18">
-        <v>3.422307327983679</v>
+        <v>3.4223073279836789</v>
       </c>
       <c r="U18">
         <v>1.230314980900751</v>
       </c>
       <c r="V18">
-        <v>9.377312749688176</v>
+        <v>9.3773127496881763</v>
       </c>
       <c r="W18">
-        <v>16.81820497183381</v>
+        <v>16.818204971833811</v>
       </c>
       <c r="X18">
-        <v>35.87431170435813</v>
+        <v>35.874311704358128</v>
       </c>
       <c r="Y18">
-        <v>16.81820497183381</v>
+        <v>16.818204971833811</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2005,19 +2094,19 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.23332768953914</v>
+        <v>22.233327689539141</v>
       </c>
       <c r="H19">
-        <v>3.193630585072458</v>
+        <v>3.1936305850724578</v>
       </c>
       <c r="I19">
-        <v>19.03969710446668</v>
+        <v>19.039697104466679</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>19.03969710446668</v>
+        <v>19.039697104466679</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2029,43 +2118,43 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>22.23332768953914</v>
+        <v>22.233327689539141</v>
       </c>
       <c r="P19">
-        <v>3.193630585072458</v>
+        <v>3.1936305850724578</v>
       </c>
       <c r="Q19">
-        <v>1.940434026331349</v>
+        <v>1.9404340263313491</v>
       </c>
       <c r="R19">
-        <v>12.84266764965959</v>
+        <v>12.842667649659591</v>
       </c>
       <c r="S19">
-        <v>6.96177190732744</v>
+        <v>6.9617719073274396</v>
       </c>
       <c r="T19">
-        <v>6.96177190732744</v>
+        <v>6.9617719073274396</v>
       </c>
       <c r="U19">
-        <v>1.940434026331349</v>
+        <v>1.9404340263313491</v>
       </c>
       <c r="V19">
-        <v>12.84266764965959</v>
+        <v>12.842667649659591</v>
       </c>
       <c r="W19">
-        <v>26.4560285665707</v>
+        <v>26.456028566570701</v>
       </c>
       <c r="X19">
-        <v>45.49572567103738</v>
+        <v>45.495725671037377</v>
       </c>
       <c r="Y19">
-        <v>26.4560285665707</v>
+        <v>26.456028566570701</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2085,19 +2174,19 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>33.89430034752157</v>
+        <v>33.894300347521572</v>
       </c>
       <c r="H20">
-        <v>6.303910793698087</v>
+        <v>6.3039107936980869</v>
       </c>
       <c r="I20">
-        <v>27.59038955382348</v>
+        <v>27.590389553823481</v>
       </c>
       <c r="J20">
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>27.59038955382348</v>
+        <v>27.590389553823481</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2109,43 +2198,43 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>33.89430034752157</v>
+        <v>33.894300347521572</v>
       </c>
       <c r="P20">
-        <v>6.303910793698087</v>
+        <v>6.3039107936980869</v>
       </c>
       <c r="Q20">
-        <v>1.682076667199606</v>
+        <v>1.6820766671996059</v>
       </c>
       <c r="R20">
         <v>16.98672829563618</v>
       </c>
       <c r="S20">
-        <v>5.37671002283299</v>
+        <v>5.3767100228329898</v>
       </c>
       <c r="T20">
-        <v>5.37671002283299</v>
+        <v>5.3767100228329898</v>
       </c>
       <c r="U20">
-        <v>1.682076667199606</v>
+        <v>1.6820766671996059</v>
       </c>
       <c r="V20">
         <v>16.98672829563618</v>
       </c>
       <c r="W20">
-        <v>24.35826564516577</v>
+        <v>24.358265645165769</v>
       </c>
       <c r="X20">
-        <v>51.94865519898926</v>
+        <v>51.948655198989258</v>
       </c>
       <c r="Y20">
         <v>24.35826564516578</v>
       </c>
       <c r="Z20">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2165,19 +2254,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>27.96292098297795</v>
+        <v>27.962920982977948</v>
       </c>
       <c r="H21">
-        <v>8.812095301690228</v>
+        <v>8.8120953016902277</v>
       </c>
       <c r="I21">
-        <v>19.15082568128772</v>
+        <v>19.150825681287721</v>
       </c>
       <c r="J21">
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>25.05083300110236</v>
+        <v>25.050833001102362</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2186,46 +2275,46 @@
         <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.7644785975957362</v>
+        <v>0.76447859759573622</v>
       </c>
       <c r="O21">
-        <v>40.33663321853381</v>
+        <v>40.336633218533812</v>
       </c>
       <c r="P21">
         <v>15.28580021743144</v>
       </c>
       <c r="Q21">
-        <v>0.9703357618255747</v>
+        <v>0.97033576182557468</v>
       </c>
       <c r="R21">
-        <v>10.21847440200749</v>
+        <v>10.218474402007489</v>
       </c>
       <c r="S21">
-        <v>2.638830329113891</v>
+        <v>2.6388303291138908</v>
       </c>
       <c r="T21">
-        <v>3.173243142027123</v>
+        <v>3.1732431420271232</v>
       </c>
       <c r="U21">
-        <v>1.154754138101154</v>
+        <v>1.1547541381011539</v>
       </c>
       <c r="V21">
         <v>8.975022166319194</v>
       </c>
       <c r="W21">
-        <v>45.23321311461415</v>
+        <v>45.233213114614152</v>
       </c>
       <c r="X21">
-        <v>64.38403879590187</v>
+        <v>64.384038795901873</v>
       </c>
       <c r="Y21">
-        <v>39.33320579479951</v>
+        <v>39.333205794799511</v>
       </c>
       <c r="Z21">
         <v>1.150000672474927</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2245,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.22144474667469</v>
+        <v>16.221444746674688</v>
       </c>
       <c r="H22">
-        <v>4.573627675441979</v>
+        <v>4.5736276754419789</v>
       </c>
       <c r="I22">
         <v>11.64781707123271</v>
@@ -2269,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>16.22144474667469</v>
+        <v>16.221444746674688</v>
       </c>
       <c r="P22">
-        <v>4.573627675441979</v>
+        <v>4.5736276754419789</v>
       </c>
       <c r="Q22">
         <v>1.266027424570791</v>
       </c>
       <c r="R22">
-        <v>5.85747900434721</v>
+        <v>5.8574790043472102</v>
       </c>
       <c r="S22">
         <v>3.546734867329818</v>
@@ -2290,22 +2379,22 @@
         <v>1.266027424570791</v>
       </c>
       <c r="V22">
-        <v>5.85747900434721</v>
+        <v>5.8574790043472102</v>
       </c>
       <c r="W22">
-        <v>55.25886567117142</v>
+        <v>55.258865671171421</v>
       </c>
       <c r="X22">
-        <v>66.90668274240413</v>
+        <v>66.906682742404129</v>
       </c>
       <c r="Y22">
-        <v>55.25886567117142</v>
+        <v>55.258865671171421</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2325,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.791373837330659</v>
+        <v>4.7913738373306591</v>
       </c>
       <c r="H23">
-        <v>2.223977363334033</v>
+        <v>2.2239773633340332</v>
       </c>
       <c r="I23">
         <v>2.567396473996626</v>
@@ -2349,43 +2438,43 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>4.791373837330659</v>
+        <v>4.7913738373306591</v>
       </c>
       <c r="P23">
-        <v>2.223977363334033</v>
+        <v>2.2239773633340332</v>
       </c>
       <c r="Q23">
         <v>0.7675199859590871</v>
       </c>
       <c r="R23">
-        <v>0.860449399317162</v>
+        <v>0.86044939931716202</v>
       </c>
       <c r="S23">
-        <v>2.154416639451655</v>
+        <v>2.1544166394516551</v>
       </c>
       <c r="T23">
-        <v>2.154416639451655</v>
+        <v>2.1544166394516551</v>
       </c>
       <c r="U23">
         <v>0.7675199859590871</v>
       </c>
       <c r="V23">
-        <v>0.860449399317162</v>
+        <v>0.86044939931716202</v>
       </c>
       <c r="W23">
-        <v>66.78336559585306</v>
+        <v>66.783365595853056</v>
       </c>
       <c r="X23">
-        <v>69.35076206984968</v>
+        <v>69.350762069849679</v>
       </c>
       <c r="Y23">
-        <v>66.78336559585306</v>
+        <v>66.783365595853056</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2405,19 +2494,19 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.923208050752804</v>
+        <v>8.9232080507528035</v>
       </c>
       <c r="H24">
-        <v>1.911930289309021</v>
+        <v>1.9119302893090211</v>
       </c>
       <c r="I24">
-        <v>7.011277761443782</v>
+        <v>7.0112777614437816</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>7.011277761443782</v>
+        <v>7.0112777614437816</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2429,16 +2518,16 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>8.923208050752804</v>
+        <v>8.9232080507528035</v>
       </c>
       <c r="P24">
-        <v>1.911930289309021</v>
+        <v>1.9119302893090211</v>
       </c>
       <c r="Q24">
-        <v>1.540542174481707</v>
+        <v>1.5405421744817069</v>
       </c>
       <c r="R24">
-        <v>4.065868516094223</v>
+        <v>4.0658685160942234</v>
       </c>
       <c r="S24">
         <v>4.66711997851014</v>
@@ -2447,16 +2536,16 @@
         <v>4.66711997851014</v>
       </c>
       <c r="U24">
-        <v>1.540542174481707</v>
+        <v>1.5405421744817069</v>
       </c>
       <c r="V24">
-        <v>4.065868516094223</v>
+        <v>4.0658685160942234</v>
       </c>
       <c r="W24">
         <v>28.09827478577909</v>
       </c>
       <c r="X24">
-        <v>35.10955254722288</v>
+        <v>35.109552547222883</v>
       </c>
       <c r="Y24">
         <v>28.09827478577909</v>
@@ -2465,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2485,19 +2574,19 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.11203243949784</v>
+        <v>18.112032439497838</v>
       </c>
       <c r="H25">
-        <v>1.409439243839158</v>
+        <v>1.4094392438391581</v>
       </c>
       <c r="I25">
-        <v>16.70259319565868</v>
+        <v>16.702593195658679</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>16.70259319565868</v>
+        <v>16.702593195658679</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2509,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>18.11203243949784</v>
+        <v>18.112032439497838</v>
       </c>
       <c r="P25">
-        <v>1.409439243839158</v>
+        <v>1.4094392438391581</v>
       </c>
       <c r="Q25">
-        <v>2.553384567187339</v>
+        <v>2.5533845671873392</v>
       </c>
       <c r="R25">
-        <v>13.10375278205158</v>
+        <v>13.103752782051579</v>
       </c>
       <c r="S25">
         <v>12.85052372329484</v>
@@ -2527,25 +2616,25 @@
         <v>12.85052372329484</v>
       </c>
       <c r="U25">
-        <v>2.553384567187339</v>
+        <v>2.5533845671873392</v>
       </c>
       <c r="V25">
-        <v>13.10375278205158</v>
+        <v>13.103752782051579</v>
       </c>
       <c r="W25">
-        <v>44.70061350445665</v>
+        <v>44.700613504456648</v>
       </c>
       <c r="X25">
-        <v>61.40320670011533</v>
+        <v>61.403206700115327</v>
       </c>
       <c r="Y25">
-        <v>44.70061350445665</v>
+        <v>44.700613504456648</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2565,19 +2654,19 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.56874191367375</v>
+        <v>18.568741913673751</v>
       </c>
       <c r="H26">
-        <v>2.792130601053252</v>
+        <v>2.7921306010532518</v>
       </c>
       <c r="I26">
-        <v>15.7766113126205</v>
+        <v>15.776611312620499</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>15.7766113126205</v>
+        <v>15.776611312620499</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2589,10 +2678,10 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>18.56874191367375</v>
+        <v>18.568741913673751</v>
       </c>
       <c r="P26">
-        <v>2.792130601053252</v>
+        <v>2.7921306010532518</v>
       </c>
       <c r="Q26">
         <v>1.89467466406065</v>
@@ -2613,19 +2702,19 @@
         <v>10.48643220405647</v>
       </c>
       <c r="W26">
-        <v>61.57092358770843</v>
+        <v>61.570923587708428</v>
       </c>
       <c r="X26">
-        <v>77.34753490032892</v>
+        <v>77.347534900328924</v>
       </c>
       <c r="Y26">
-        <v>61.57092358770843</v>
+        <v>61.570923587708428</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2690,19 +2779,19 @@
         <v>56</v>
       </c>
       <c r="W27">
-        <v>47.18054869476767</v>
+        <v>47.180548694767673</v>
       </c>
       <c r="X27">
-        <v>47.18054869476767</v>
+        <v>47.180548694767673</v>
       </c>
       <c r="Y27">
-        <v>47.18054869476767</v>
+        <v>47.180548694767673</v>
       </c>
       <c r="Z27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.29758212082494</v>
+        <v>16.297582120824941</v>
       </c>
       <c r="H28">
-        <v>3.657677046163118</v>
+        <v>3.6576770461631178</v>
       </c>
       <c r="I28">
         <v>12.63990507466182</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>16.29758212082494</v>
+        <v>16.297582120824941</v>
       </c>
       <c r="P28">
-        <v>3.657677046163118</v>
+        <v>3.6576770461631178</v>
       </c>
       <c r="Q28">
         <v>1.494188501590473</v>
       </c>
       <c r="R28">
-        <v>7.174646089753485</v>
+        <v>7.1746460897534847</v>
       </c>
       <c r="S28">
-        <v>4.455719276233261</v>
+        <v>4.4557192762332614</v>
       </c>
       <c r="T28">
-        <v>4.455719276233261</v>
+        <v>4.4557192762332614</v>
       </c>
       <c r="U28">
         <v>1.494188501590473</v>
       </c>
       <c r="V28">
-        <v>7.174646089753485</v>
+        <v>7.1746460897534847</v>
       </c>
       <c r="W28">
-        <v>44.32688177843828</v>
+        <v>44.326881778438278</v>
       </c>
       <c r="X28">
-        <v>56.9667868531001</v>
+        <v>56.966786853100103</v>
       </c>
       <c r="Y28">
-        <v>44.32688177843828</v>
+        <v>44.326881778438278</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2891,19 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.080510136582411</v>
+        <v>9.0805101365824115</v>
       </c>
       <c r="H29">
-        <v>2.838911170894581</v>
+        <v>2.8389111708945811</v>
       </c>
       <c r="I29">
-        <v>6.241598965687831</v>
+        <v>6.2415989656878308</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>6.241598965687831</v>
+        <v>6.2415989656878308</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2826,43 +2915,43 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>9.080510136582411</v>
+        <v>9.0805101365824115</v>
       </c>
       <c r="P29">
-        <v>2.838911170894581</v>
+        <v>2.8389111708945811</v>
       </c>
       <c r="Q29">
         <v>1.162709785347926</v>
       </c>
       <c r="R29">
-        <v>2.940769167555162</v>
+        <v>2.9407691675551622</v>
       </c>
       <c r="S29">
-        <v>3.198589032893557</v>
+        <v>3.1985890328935569</v>
       </c>
       <c r="T29">
-        <v>3.198589032893557</v>
+        <v>3.1985890328935569</v>
       </c>
       <c r="U29">
         <v>1.162709785347926</v>
       </c>
       <c r="V29">
-        <v>2.940769167555162</v>
+        <v>2.9407691675551622</v>
       </c>
       <c r="W29">
-        <v>38.11819586097629</v>
+        <v>38.118195860976293</v>
       </c>
       <c r="X29">
-        <v>44.35979482666411</v>
+        <v>44.359794826664107</v>
       </c>
       <c r="Y29">
-        <v>38.11819586097629</v>
+        <v>38.118195860976293</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.06050823969021</v>
+        <v>12.060508239690209</v>
       </c>
       <c r="H30">
         <v>1.013339800107196</v>
       </c>
       <c r="I30">
-        <v>11.04716843958301</v>
+        <v>11.047168439583009</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>11.04716843958301</v>
+        <v>11.047168439583009</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2906,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>12.06050823969021</v>
+        <v>12.060508239690209</v>
       </c>
       <c r="P30">
         <v>1.013339800107196</v>
       </c>
       <c r="Q30">
-        <v>2.476684724591219</v>
+        <v>2.4766847245912191</v>
       </c>
       <c r="R30">
-        <v>8.5374452358372</v>
+        <v>8.5374452358372004</v>
       </c>
       <c r="S30">
         <v>11.90174138863823</v>
@@ -2924,25 +3013,25 @@
         <v>11.90174138863823</v>
       </c>
       <c r="U30">
-        <v>2.476684724591219</v>
+        <v>2.4766847245912191</v>
       </c>
       <c r="V30">
-        <v>8.5374452358372</v>
+        <v>8.5374452358372004</v>
       </c>
       <c r="W30">
-        <v>41.1563697194706</v>
+        <v>41.156369719470597</v>
       </c>
       <c r="X30">
-        <v>52.20353815905361</v>
+        <v>52.203538159053608</v>
       </c>
       <c r="Y30">
-        <v>41.1563697194706</v>
+        <v>41.156369719470597</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2965,7 +3054,7 @@
         <v>11.92855155423954</v>
       </c>
       <c r="H31">
-        <v>1.78671882857677</v>
+        <v>1.7867188285767699</v>
       </c>
       <c r="I31">
         <v>10.14183272566277</v>
@@ -2989,40 +3078,83 @@
         <v>11.92855155423954</v>
       </c>
       <c r="P31">
-        <v>1.78671882857677</v>
+        <v>1.7867188285767699</v>
       </c>
       <c r="Q31">
-        <v>1.898553935601082</v>
+        <v>1.8985539356010821</v>
       </c>
       <c r="R31">
-        <v>6.749650661855785</v>
+        <v>6.7496506618557852</v>
       </c>
       <c r="S31">
-        <v>6.676233195427482</v>
+        <v>6.6762331954274821</v>
       </c>
       <c r="T31">
-        <v>6.676233195427482</v>
+        <v>6.6762331954274821</v>
       </c>
       <c r="U31">
-        <v>1.898553935601082</v>
+        <v>1.8985539356010821</v>
       </c>
       <c r="V31">
-        <v>6.749650661855785</v>
+        <v>6.7496506618557852</v>
       </c>
       <c r="W31">
-        <v>41.65370025383559</v>
+        <v>41.653700253835588</v>
       </c>
       <c r="X31">
-        <v>51.79553297949835</v>
+        <v>51.795532979498347</v>
       </c>
       <c r="Y31">
-        <v>41.65370025383559</v>
+        <v>41.653700253835588</v>
       </c>
       <c r="Z31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.12666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.95577441649576311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0455964377862916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.68579124177587791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.424098854533367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>